--- a/data/trans_orig/P75_P_2012-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P75_P_2012-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9967E25C-1D66-4771-B93C-C4036B283809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8700EC1D-6C6D-48BB-914D-9ECD4C5C5880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{56D7F2E1-9BB8-40C8-9347-22C63EA20DD4}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{089CA8A0-C1BE-4E24-A3CB-F96A9EEC1568}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="262">
   <si>
     <t>Población según el nivel de estudios de su padre cuando tenían 12 años en 2012 (Tasa respuesta: 97,13%)</t>
   </si>
@@ -77,7 +77,7 @@
     <t>0,1%</t>
   </si>
   <si>
-    <t>1,04%</t>
+    <t>1,02%</t>
   </si>
   <si>
     <t>0,3%</t>
@@ -86,13 +86,13 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>1,05%</t>
+    <t>0,9%</t>
   </si>
   <si>
     <t>0,32%</t>
   </si>
   <si>
-    <t>0,12%</t>
+    <t>0,11%</t>
   </si>
   <si>
     <t>0,74%</t>
@@ -104,724 +104,721 @@
     <t>0,36%</t>
   </si>
   <si>
-    <t>1,31%</t>
+    <t>1,2%</t>
   </si>
   <si>
     <t>0,33%</t>
   </si>
   <si>
-    <t>0,09%</t>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>Secundarios segunda etapa (BUP, B.Superior, FPII, COU, Maest</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>Secundarios primera etapa (EGB completa, bachiller elemental</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>Estudios primarios completos o equivalentes (hasta 5º EGB, i</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>No había estudiado/primaria incompleta pero sabía leer y esc</t>
+  </si>
+  <si>
+    <t>56,39%</t>
+  </si>
+  <si>
+    <t>53,06%</t>
+  </si>
+  <si>
+    <t>59,84%</t>
+  </si>
+  <si>
+    <t>57,57%</t>
+  </si>
+  <si>
+    <t>54,91%</t>
+  </si>
+  <si>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>57,07%</t>
+  </si>
+  <si>
+    <t>55,04%</t>
+  </si>
+  <si>
+    <t>59,33%</t>
+  </si>
+  <si>
+    <t>No sabía leer o escribir</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
   </si>
   <si>
     <t>0,82%</t>
   </si>
   <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>Secundarios segunda etapa (BUP, B.Superior, FPII, COU, Maest</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>Secundarios primera etapa (EGB completa, bachiller elemental</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
     <t>2,53%</t>
   </si>
   <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>Estudios primarios completos o equivalentes (hasta 5º EGB, i</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>No había estudiado/primaria incompleta pero sabía leer y esc</t>
-  </si>
-  <si>
-    <t>56,39%</t>
-  </si>
-  <si>
-    <t>52,98%</t>
-  </si>
-  <si>
-    <t>59,84%</t>
-  </si>
-  <si>
-    <t>57,57%</t>
-  </si>
-  <si>
-    <t>54,49%</t>
-  </si>
-  <si>
-    <t>60,17%</t>
-  </si>
-  <si>
-    <t>57,07%</t>
-  </si>
-  <si>
-    <t>54,91%</t>
-  </si>
-  <si>
-    <t>59,25%</t>
-  </si>
-  <si>
-    <t>No sabía leer o escribir</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
   </si>
   <si>
     <t>2,91%</t>
   </si>
   <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>39,91%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
   </si>
   <si>
     <t>21,88%</t>
   </si>
   <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
+    <t>24,84%</t>
   </si>
   <si>
     <t>23,49%</t>
   </si>
   <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
   </si>
   <si>
     <t>38,56%</t>
   </si>
   <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
   </si>
   <si>
     <t>42,55%</t>
   </si>
   <si>
-    <t>40,66%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
   </si>
   <si>
     <t>40,6%</t>
   </si>
   <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>41,8%</t>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
   </si>
   <si>
     <t>9,9%</t>
   </si>
   <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
   </si>
   <si>
     <t>10,81%</t>
   </si>
   <si>
-    <t>10,01%</t>
+    <t>10,11%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1236,7 +1233,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7865E5C-845F-4B19-8670-6D92B58A238C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FA53D27-2290-4060-B9F9-807564894273}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1480,10 +1477,10 @@
         <v>33</v>
       </c>
       <c r="K6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="M6" s="7">
         <v>15</v>
@@ -1492,10 +1489,10 @@
         <v>14930</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>37</v>
@@ -1827,7 +1824,7 @@
         <v>90</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>35</v>
@@ -1836,13 +1833,13 @@
         <v>36791</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>88</v>
@@ -1854,10 +1851,10 @@
         <v>86</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1872,13 +1869,13 @@
         <v>124768</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H14" s="7">
         <v>115</v>
@@ -1887,13 +1884,13 @@
         <v>123083</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M14" s="7">
         <v>233</v>
@@ -1902,13 +1899,13 @@
         <v>247851</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1923,13 +1920,13 @@
         <v>349546</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H15" s="7">
         <v>266</v>
@@ -1938,13 +1935,13 @@
         <v>285243</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M15" s="7">
         <v>593</v>
@@ -1953,13 +1950,13 @@
         <v>634789</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1974,13 +1971,13 @@
         <v>579442</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H16" s="7">
         <v>473</v>
@@ -1989,13 +1986,13 @@
         <v>508689</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M16" s="7">
         <v>1021</v>
@@ -2004,13 +2001,13 @@
         <v>1088131</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2025,13 +2022,13 @@
         <v>678210</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H17" s="7">
         <v>598</v>
@@ -2040,13 +2037,13 @@
         <v>642847</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M17" s="7">
         <v>1243</v>
@@ -2055,13 +2052,13 @@
         <v>1321057</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2076,13 +2073,13 @@
         <v>70830</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>132</v>
+        <v>91</v>
       </c>
       <c r="F18" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H18" s="7">
         <v>70</v>
@@ -2091,13 +2088,13 @@
         <v>75035</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M18" s="7">
         <v>139</v>
@@ -2106,13 +2103,13 @@
         <v>145865</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2168,7 +2165,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2180,13 +2177,13 @@
         <v>55639</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H20" s="7">
         <v>47</v>
@@ -2195,13 +2192,13 @@
         <v>55197</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M20" s="7">
         <v>88</v>
@@ -2210,13 +2207,13 @@
         <v>110835</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2231,13 +2228,13 @@
         <v>49141</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H21" s="7">
         <v>31</v>
@@ -2246,13 +2243,13 @@
         <v>35052</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M21" s="7">
         <v>77</v>
@@ -2261,13 +2258,13 @@
         <v>84193</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2282,13 +2279,13 @@
         <v>62904</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H22" s="7">
         <v>53</v>
@@ -2297,13 +2294,13 @@
         <v>61818</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M22" s="7">
         <v>113</v>
@@ -2312,13 +2309,13 @@
         <v>124722</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2333,13 +2330,13 @@
         <v>126569</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H23" s="7">
         <v>88</v>
@@ -2348,13 +2345,13 @@
         <v>94066</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M23" s="7">
         <v>209</v>
@@ -2363,13 +2360,13 @@
         <v>220635</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2384,13 +2381,13 @@
         <v>96336</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="H24" s="7">
         <v>103</v>
@@ -2399,13 +2396,13 @@
         <v>112718</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M24" s="7">
         <v>191</v>
@@ -2414,13 +2411,13 @@
         <v>209054</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2435,13 +2432,13 @@
         <v>69889</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="H25" s="7">
         <v>73</v>
@@ -2450,13 +2447,13 @@
         <v>80496</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M25" s="7">
         <v>136</v>
@@ -2465,13 +2462,13 @@
         <v>150386</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2486,13 +2483,13 @@
         <v>8769</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="H26" s="7">
         <v>4</v>
@@ -2501,13 +2498,13 @@
         <v>4435</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="K26" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="L26" s="7" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="M26" s="7">
         <v>13</v>
@@ -2605,13 +2602,13 @@
         <v>100435</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>93</v>
+        <v>205</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M28" s="7">
         <v>172</v>
@@ -2620,13 +2617,13 @@
         <v>208025</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2641,13 +2638,13 @@
         <v>106009</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H29" s="7">
         <v>70</v>
@@ -2656,13 +2653,13 @@
         <v>76125</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M29" s="7">
         <v>171</v>
@@ -2671,13 +2668,13 @@
         <v>182134</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>218</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2764,7 +2761,7 @@
         <v>232</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>233</v>
+        <v>55</v>
       </c>
       <c r="M31" s="7">
         <v>862</v>
@@ -2773,13 +2770,13 @@
         <v>920946</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2794,13 +2791,13 @@
         <v>785565</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="H32" s="7">
         <v>743</v>
@@ -2809,13 +2806,13 @@
         <v>803412</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="M32" s="7">
         <v>1478</v>
@@ -2824,13 +2821,13 @@
         <v>1588977</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2845,13 +2842,13 @@
         <v>1278010</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="G33" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="H33" s="7">
         <v>1370</v>
@@ -2860,13 +2857,13 @@
         <v>1468715</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="K33" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="K33" s="7" t="s">
+      <c r="L33" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="M33" s="7">
         <v>2574</v>
@@ -2875,13 +2872,13 @@
         <v>2746725</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="P33" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="P33" s="7" t="s">
+      <c r="Q33" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2896,13 +2893,13 @@
         <v>328185</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="H34" s="7">
         <v>378</v>
@@ -2914,10 +2911,10 @@
         <v>49</v>
       </c>
       <c r="K34" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="M34" s="7">
         <v>693</v>
@@ -2926,13 +2923,13 @@
         <v>731162</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="P34" s="7" t="s">
-        <v>261</v>
-      </c>
       <c r="Q34" s="7" t="s">
-        <v>56</v>
+        <v>157</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2988,7 +2985,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P75_P_2012-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P75_P_2012-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8700EC1D-6C6D-48BB-914D-9ECD4C5C5880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{08C51B3E-EDC8-46F1-913C-521908F3B41A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{089CA8A0-C1BE-4E24-A3CB-F96A9EEC1568}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CF100203-1074-4A17-8753-702B06BB9193}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="261">
   <si>
     <t>Población según el nivel de estudios de su padre cuando tenían 12 años en 2012 (Tasa respuesta: 97,13%)</t>
   </si>
@@ -77,7 +77,7 @@
     <t>0,1%</t>
   </si>
   <si>
-    <t>1,02%</t>
+    <t>1,09%</t>
   </si>
   <si>
     <t>0,3%</t>
@@ -86,16 +86,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>0,9%</t>
+    <t>0,97%</t>
   </si>
   <si>
     <t>0,32%</t>
   </si>
   <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
   </si>
   <si>
     <t>Estudios universitarios de grado medio</t>
@@ -104,7 +104,7 @@
     <t>0,36%</t>
   </si>
   <si>
-    <t>1,2%</t>
+    <t>1,48%</t>
   </si>
   <si>
     <t>0,33%</t>
@@ -113,45 +113,39 @@
     <t>0,08%</t>
   </si>
   <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
     <t>0,76%</t>
   </si>
   <si>
-    <t>0,34%</t>
+    <t>Secundarios segunda etapa (BUP, B.Superior, FPII, COU, Maest</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
   </si>
   <si>
     <t>0,15%</t>
   </si>
   <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>Secundarios segunda etapa (BUP, B.Superior, FPII, COU, Maest</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
+    <t>0,85%</t>
   </si>
   <si>
     <t>0,67%</t>
   </si>
   <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
     <t>Secundarios primera etapa (EGB completa, bachiller elemental</t>
   </si>
   <si>
@@ -161,7 +155,7 @@
     <t>2,5%</t>
   </si>
   <si>
-    <t>5,15%</t>
+    <t>5,18%</t>
   </si>
   <si>
     <t>2,37%</t>
@@ -176,10 +170,10 @@
     <t>2,93%</t>
   </si>
   <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
   </si>
   <si>
     <t>Estudios primarios completos o equivalentes (hasta 5º EGB, i</t>
@@ -188,28 +182,25 @@
     <t>11,68%</t>
   </si>
   <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
   </si>
   <si>
     <t>14,06%</t>
   </si>
   <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
   </si>
   <si>
     <t>13,06%</t>
   </si>
   <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
+    <t>14,74%</t>
   </si>
   <si>
     <t>No había estudiado/primaria incompleta pero sabía leer y esc</t>
@@ -218,28 +209,28 @@
     <t>56,39%</t>
   </si>
   <si>
-    <t>53,06%</t>
-  </si>
-  <si>
-    <t>59,84%</t>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>59,56%</t>
   </si>
   <si>
     <t>57,57%</t>
   </si>
   <si>
-    <t>54,91%</t>
-  </si>
-  <si>
-    <t>60,56%</t>
+    <t>54,74%</t>
+  </si>
+  <si>
+    <t>60,57%</t>
   </si>
   <si>
     <t>57,07%</t>
   </si>
   <si>
-    <t>55,04%</t>
-  </si>
-  <si>
-    <t>59,33%</t>
+    <t>54,81%</t>
+  </si>
+  <si>
+    <t>59,2%</t>
   </si>
   <si>
     <t>No sabía leer o escribir</t>
@@ -248,28 +239,28 @@
     <t>26,45%</t>
   </si>
   <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
   </si>
   <si>
     <t>24,99%</t>
   </si>
   <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
   </si>
   <si>
     <t>25,6%</t>
   </si>
   <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
   </si>
   <si>
     <t>100%</t>
@@ -284,541 +275,547 @@
     <t>1,86%</t>
   </si>
   <si>
-    <t>3,52%</t>
+    <t>3,57%</t>
   </si>
   <si>
     <t>2,41%</t>
   </si>
   <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
   </si>
   <si>
     <t>2,49%</t>
   </si>
   <si>
-    <t>2,0%</t>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
   </si>
   <si>
     <t>3,11%</t>
   </si>
   <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>40,1%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>41,84%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
   </si>
   <si>
     <t>10,98%</t>
   </si>
   <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
   </si>
   <si>
     <t>10,81%</t>
   </si>
   <si>
-    <t>10,11%</t>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1233,7 +1230,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FA53D27-2290-4060-B9F9-807564894273}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9773A26-6BE7-4135-B91C-78B8D003B910}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1441,16 +1438,16 @@
         <v>26</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" s="7">
         <v>10</v>
@@ -1459,13 +1456,13 @@
         <v>9942</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="H6" s="7">
         <v>5</v>
@@ -1474,10 +1471,10 @@
         <v>4988</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>34</v>
@@ -1492,16 +1489,16 @@
         <v>35</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C7" s="7">
         <v>31</v>
@@ -1510,13 +1507,13 @@
         <v>34838</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="H7" s="7">
         <v>29</v>
@@ -1525,13 +1522,13 @@
         <v>30685</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="M7" s="7">
         <v>60</v>
@@ -1540,19 +1537,19 @@
         <v>65523</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C8" s="7">
         <v>99</v>
@@ -1561,13 +1558,13 @@
         <v>109788</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="H8" s="7">
         <v>167</v>
@@ -1576,13 +1573,13 @@
         <v>182005</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="M8" s="7">
         <v>266</v>
@@ -1591,19 +1588,19 @@
         <v>291792</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C9" s="7">
         <v>496</v>
@@ -1612,13 +1609,13 @@
         <v>529911</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H9" s="7">
         <v>699</v>
@@ -1627,13 +1624,13 @@
         <v>745371</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="M9" s="7">
         <v>1195</v>
@@ -1642,19 +1639,19 @@
         <v>1275282</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C10" s="7">
         <v>237</v>
@@ -1663,13 +1660,13 @@
         <v>248586</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H10" s="7">
         <v>304</v>
@@ -1678,13 +1675,13 @@
         <v>323506</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="M10" s="7">
         <v>541</v>
@@ -1693,13 +1690,13 @@
         <v>572092</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1714,13 +1711,13 @@
         <v>939794</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H11" s="7">
         <v>1210</v>
@@ -1729,13 +1726,13 @@
         <v>1294734</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>2088</v>
@@ -1744,18 +1741,18 @@
         <v>2234527</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1767,13 +1764,13 @@
         <v>48631</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H12" s="7">
         <v>37</v>
@@ -1782,13 +1779,13 @@
         <v>41342</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="M12" s="7">
         <v>79</v>
@@ -1797,13 +1794,13 @@
         <v>89973</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1818,13 +1815,13 @@
         <v>53460</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H13" s="7">
         <v>35</v>
@@ -1833,13 +1830,13 @@
         <v>36791</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M13" s="7">
         <v>88</v>
@@ -1848,19 +1845,19 @@
         <v>90251</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" s="7">
         <v>118</v>
@@ -1869,13 +1866,13 @@
         <v>124768</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H14" s="7">
         <v>115</v>
@@ -1884,13 +1881,13 @@
         <v>123083</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M14" s="7">
         <v>233</v>
@@ -1899,19 +1896,19 @@
         <v>247851</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C15" s="7">
         <v>327</v>
@@ -1920,13 +1917,13 @@
         <v>349546</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H15" s="7">
         <v>266</v>
@@ -1935,13 +1932,13 @@
         <v>285243</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M15" s="7">
         <v>593</v>
@@ -1950,19 +1947,19 @@
         <v>634789</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C16" s="7">
         <v>548</v>
@@ -1971,13 +1968,13 @@
         <v>579442</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H16" s="7">
         <v>473</v>
@@ -1986,13 +1983,13 @@
         <v>508689</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M16" s="7">
         <v>1021</v>
@@ -2001,19 +1998,19 @@
         <v>1088131</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C17" s="7">
         <v>645</v>
@@ -2022,13 +2019,13 @@
         <v>678210</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H17" s="7">
         <v>598</v>
@@ -2037,13 +2034,13 @@
         <v>642847</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="M17" s="7">
         <v>1243</v>
@@ -2052,19 +2049,19 @@
         <v>1321057</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C18" s="7">
         <v>69</v>
@@ -2073,13 +2070,13 @@
         <v>70830</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>45</v>
+        <v>131</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H18" s="7">
         <v>70</v>
@@ -2088,10 +2085,10 @@
         <v>75035</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>135</v>
@@ -2124,13 +2121,13 @@
         <v>1904886</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H19" s="7">
         <v>1594</v>
@@ -2139,13 +2136,13 @@
         <v>1713031</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="M19" s="7">
         <v>3396</v>
@@ -2154,13 +2151,13 @@
         <v>3617917</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2246,10 +2243,10 @@
         <v>152</v>
       </c>
       <c r="K21" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M21" s="7">
         <v>77</v>
@@ -2258,19 +2255,19 @@
         <v>84193</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C22" s="7">
         <v>60</v>
@@ -2279,13 +2276,13 @@
         <v>62904</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="H22" s="7">
         <v>53</v>
@@ -2294,13 +2291,13 @@
         <v>61818</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M22" s="7">
         <v>113</v>
@@ -2309,19 +2306,19 @@
         <v>124722</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C23" s="7">
         <v>121</v>
@@ -2330,13 +2327,13 @@
         <v>126569</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="H23" s="7">
         <v>88</v>
@@ -2345,13 +2342,13 @@
         <v>94066</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="M23" s="7">
         <v>209</v>
@@ -2360,19 +2357,19 @@
         <v>220635</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C24" s="7">
         <v>88</v>
@@ -2381,13 +2378,13 @@
         <v>96336</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="H24" s="7">
         <v>103</v>
@@ -2396,13 +2393,13 @@
         <v>112718</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="M24" s="7">
         <v>191</v>
@@ -2411,19 +2408,19 @@
         <v>209054</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C25" s="7">
         <v>63</v>
@@ -2432,13 +2429,13 @@
         <v>69889</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H25" s="7">
         <v>73</v>
@@ -2447,13 +2444,13 @@
         <v>80496</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M25" s="7">
         <v>136</v>
@@ -2462,19 +2459,19 @@
         <v>150386</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C26" s="7">
         <v>9</v>
@@ -2483,13 +2480,13 @@
         <v>8769</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="H26" s="7">
         <v>4</v>
@@ -2498,13 +2495,13 @@
         <v>4435</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="M26" s="7">
         <v>13</v>
@@ -2513,13 +2510,13 @@
         <v>13204</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2534,13 +2531,13 @@
         <v>469246</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H27" s="7">
         <v>399</v>
@@ -2549,13 +2546,13 @@
         <v>443783</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="M27" s="7">
         <v>827</v>
@@ -2564,13 +2561,13 @@
         <v>913029</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2587,13 +2584,13 @@
         <v>107590</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="H28" s="7">
         <v>86</v>
@@ -2602,13 +2599,13 @@
         <v>100435</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="M28" s="7">
         <v>172</v>
@@ -2617,13 +2614,13 @@
         <v>208025</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>208</v>
+        <v>85</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2638,13 +2635,13 @@
         <v>106009</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H29" s="7">
         <v>70</v>
@@ -2653,13 +2650,13 @@
         <v>76125</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="M29" s="7">
         <v>171</v>
@@ -2668,19 +2665,19 @@
         <v>182134</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>88</v>
+        <v>215</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C30" s="7">
         <v>188</v>
@@ -2689,13 +2686,13 @@
         <v>197614</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H30" s="7">
         <v>173</v>
@@ -2704,13 +2701,13 @@
         <v>189890</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="M30" s="7">
         <v>361</v>
@@ -2719,19 +2716,19 @@
         <v>387503</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C31" s="7">
         <v>479</v>
@@ -2740,13 +2737,13 @@
         <v>510953</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H31" s="7">
         <v>383</v>
@@ -2755,13 +2752,13 @@
         <v>409994</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>55</v>
+        <v>230</v>
       </c>
       <c r="M31" s="7">
         <v>862</v>
@@ -2770,19 +2767,19 @@
         <v>920946</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C32" s="7">
         <v>735</v>
@@ -2791,13 +2788,13 @@
         <v>785565</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="H32" s="7">
         <v>743</v>
@@ -2806,13 +2803,13 @@
         <v>803412</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="M32" s="7">
         <v>1478</v>
@@ -2821,19 +2818,19 @@
         <v>1588977</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C33" s="7">
         <v>1204</v>
@@ -2842,13 +2839,13 @@
         <v>1278010</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="H33" s="7">
         <v>1370</v>
@@ -2857,13 +2854,13 @@
         <v>1468715</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="M33" s="7">
         <v>2574</v>
@@ -2872,19 +2869,19 @@
         <v>2746725</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q33" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C34" s="7">
         <v>315</v>
@@ -2893,13 +2890,13 @@
         <v>328185</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="H34" s="7">
         <v>378</v>
@@ -2908,13 +2905,13 @@
         <v>402977</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="M34" s="7">
         <v>693</v>
@@ -2923,13 +2920,13 @@
         <v>731162</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2944,13 +2941,13 @@
         <v>3313926</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H35" s="7">
         <v>3203</v>
@@ -2959,13 +2956,13 @@
         <v>3451548</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="M35" s="7">
         <v>6311</v>
@@ -2974,18 +2971,18 @@
         <v>6765473</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
